--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/tutorial_act9d0_04.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/tutorial_act9d0_04.xlsx
@@ -68,7 +68,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ines")] Wait up, the enemy’s here.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ines")] Wait up, the enemy's here.
 </t>
   </si>
   <si>
@@ -80,11 +80,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_hoederer")] But as soon as they realize they’re under attack, they’ll immediately become &lt;@tu.kw&gt;Combat-Ready&lt;/&gt;. We won’t have much leeway here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ines")] It’s quite simple. We can devour them all, &lt;@tu.kw&gt;one by one&lt;/&gt;. They won’t even have a chance to fight back.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_hoederer")] But as soon as they realize they're under attack, they'll immediately become &lt;@tu.kw&gt;Combat-Ready&lt;/&gt;. We won't have much leeway here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ines")] It's quite simple. We can devour them all, &lt;@tu.kw&gt;one by one&lt;/&gt;. They won't even have a chance to fight back.
 </t>
   </si>
   <si>
